--- a/trial/music labels/labels_reference.xlsx
+++ b/trial/music labels/labels_reference.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandy/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandy/Documents/GitHub/aWit-trial/trial/music labels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308CC0E3-8D8F-DD41-9D9B-592FC4DE0753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B20B468-3C81-4D49-B66E-925074357AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="44800" windowHeight="25200" xr2:uid="{724D2CD4-AFE9-5447-80DF-886A7017B778}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12660" windowHeight="25200" xr2:uid="{724D2CD4-AFE9-5447-80DF-886A7017B778}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="102">
   <si>
     <t>label_name</t>
   </si>
@@ -318,13 +318,37 @@
   </si>
   <si>
     <t>RCA Records</t>
+  </si>
+  <si>
+    <t>Top Dawg Entertainment</t>
+  </si>
+  <si>
+    <t>Universal Music Publishing</t>
+  </si>
+  <si>
+    <t>ADOR</t>
+  </si>
+  <si>
+    <t>Jive</t>
+  </si>
+  <si>
+    <t>ABS-CBN Music</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Yellow Room Music Philippines</t>
+  </si>
+  <si>
+    <t>Domino Recording Co</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -339,6 +363,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -361,9 +391,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,7 +413,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -670,7 +701,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -678,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FF7E63-E55E-D74F-B4BE-2D22EDFD8921}">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -722,32 +753,32 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
+      <c r="A5" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -755,7 +786,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -763,7 +794,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -771,7 +802,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -779,15 +810,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -795,39 +826,39 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -835,7 +866,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -843,15 +874,15 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -859,15 +890,15 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -875,15 +906,15 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -891,7 +922,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -899,47 +930,47 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>30</v>
+      <c r="A28" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
@@ -947,15 +978,15 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -963,7 +994,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
@@ -971,15 +1002,15 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -987,7 +1018,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -995,15 +1026,15 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -1011,7 +1042,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -1019,7 +1050,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -1027,31 +1058,31 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -1059,7 +1090,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -1067,7 +1098,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -1075,15 +1106,15 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -1091,31 +1122,31 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -1123,15 +1154,15 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -1139,7 +1170,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -1147,23 +1178,23 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -1171,23 +1202,23 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -1195,31 +1226,31 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -1227,15 +1258,15 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
@@ -1243,23 +1274,23 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
@@ -1267,7 +1298,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
@@ -1275,15 +1306,15 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
@@ -1291,23 +1322,23 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -1315,7 +1346,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -1323,15 +1354,15 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -1339,31 +1370,31 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -1371,31 +1402,31 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>87</v>
+      <c r="A87" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
@@ -1403,17 +1434,73 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>85</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>86</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>87</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>88</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>89</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>90</v>
       </c>
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>91</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B98" t="s">
         <v>7</v>
       </c>
     </row>
